--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/ARKANSAS_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/ARKANSAS_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1095"/>
+  <dimension ref="A1:D1089"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C44">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C47">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C51">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C83">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C85">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C94">
@@ -1847,7 +1847,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C112">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C153">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C156">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C162">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C164">
@@ -2642,12 +2642,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C172">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C175">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C179">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C184">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C190">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C195">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C200">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C207">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C214">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C224">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C229">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C239">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C246">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C250">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C260">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C264">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C265">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C266">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C270">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C276">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C283">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C288">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C292">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C295">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C302">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C322">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C327">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C339">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C344">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C348">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C351">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C359">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C362">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C366">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C371">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C379">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C383">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C390">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C402">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C409">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C416">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C422">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C425">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C427">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C432">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C435">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C439">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C450">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C454">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C475">
@@ -7222,7 +7222,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C522">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C543">
@@ -7617,7 +7617,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C552">
@@ -7682,7 +7682,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C557">
@@ -7804,7 +7804,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C566">
@@ -7895,7 +7895,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C573">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C590">
@@ -8186,7 +8186,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C595">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C600">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C603">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C606">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C609">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C611">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C616">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C620">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C622">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C626">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C630">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C633">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C639">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C690">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C708">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C710">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C713">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C716">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C727">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C741">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C742">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C745">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C748">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C765">
@@ -10458,7 +10458,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C769">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C770">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C787">
@@ -10723,7 +10723,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C789">
@@ -10788,7 +10788,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C794">
@@ -10801,7 +10801,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C795">
@@ -10840,7 +10840,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C798">
@@ -10866,7 +10866,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C800">
@@ -11006,7 +11006,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C810">
@@ -11071,7 +11071,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C815">
@@ -11175,7 +11175,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C823">
@@ -11240,7 +11240,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C828">
@@ -11318,7 +11318,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C834">
@@ -11331,7 +11331,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C835">
@@ -11396,7 +11396,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C840">
@@ -11448,7 +11448,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C844">
@@ -11461,7 +11461,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C845">
@@ -11474,7 +11474,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C846">
@@ -11487,7 +11487,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C847">
@@ -11500,7 +11500,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C848">
@@ -12035,7 +12035,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C888">
@@ -12456,7 +12456,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C920">
@@ -12656,7 +12656,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C935">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C950">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C956">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C957">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C965">
@@ -13181,7 +13181,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C975">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C976">
@@ -13220,7 +13220,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C978">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C979">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C987">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C990">
@@ -13389,7 +13389,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C991">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1003">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1007">
@@ -13870,7 +13870,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1028">
@@ -14140,7 +14140,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1048">
@@ -14166,7 +14166,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1050">
@@ -14179,7 +14179,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1051">
@@ -14296,7 +14296,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1060">
@@ -14387,7 +14387,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1067">
@@ -14400,7 +14400,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1068">
@@ -14543,7 +14543,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1079">
@@ -14556,7 +14556,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1080">
@@ -14595,7 +14595,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1083">
@@ -14681,41 +14681,6 @@
       </c>
       <c r="D1089">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
